--- a/biology/Botanique/Vaccinium_vitis-idaea/Vaccinium_vitis-idaea.xlsx
+++ b/biology/Botanique/Vaccinium_vitis-idaea/Vaccinium_vitis-idaea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vaccinium vitis-idaea est une espèce de plante à fleurs du genre Vaccinium et de la famille des Ericaceae.
 C'est notamment l'espèce de l'airelle rouge.
@@ -512,13 +524,15 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On distingue au moins deux sous-espèces au sein de cette espèce :
 Vaccinium vitis-idaea subsp. minus (Lodd. et al.) Hultén - Petite Airelle
 Vaccinium vitis-idaea subsp. vitis-idaea : l'airelle rouge
 En Europe, seule la sous-espèce vitis-idaea est présente. Cet arbrisseau atteint une hauteur de 10 à 30 cm de haut. Les feuilles persistantes, longues de 1 à 3 cm, sont vert luisant foncé sur la face supérieure et pourvues de petite glandes brunes à la face inférieure. L'airelle se rencontre en sols acides telles que les landes.
-Les fleurs, regroupées en racème, présentent des corolles blanches campanulées de 5 à 7 mm de long, et attirent préférentiellement des abeilles (Apis mellifera) ainsi que d'autres Apidés (Bombus pascuorum) et des Syrphidés (Diptères). La floraison a lieu de la mi-mai à fin juin suivant les régions[1],[2].
+Les fleurs, regroupées en racème, présentent des corolles blanches campanulées de 5 à 7 mm de long, et attirent préférentiellement des abeilles (Apis mellifera) ainsi que d'autres Apidés (Bombus pascuorum) et des Syrphidés (Diptères). La floraison a lieu de la mi-mai à fin juin suivant les régions,.
 Les baies, de couleur rouge, ont un diamètre de 4 à 10 mm et présentent une chair acidulée.
 </t>
         </is>
@@ -548,13 +562,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vaccinium Vitis-Idaea est un sous-arbrisseau ou un arbuste à port buissonnant, rampant et tapissant. Les tiges sont arrondies et rigides[3].
-Feuilles
-Les feuilles sont coriaces, ovales et persistantes[4].
-Fleurs
-Les fleurs roses en forme de cloche se présentent en petites grappes terminales et sont suivies de baies rouges comestibles[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vaccinium Vitis-Idaea est un sous-arbrisseau ou un arbuste à port buissonnant, rampant et tapissant. Les tiges sont arrondies et rigides.
 </t>
         </is>
       </c>
@@ -580,15 +592,129 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont coriaces, ovales et persistantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vaccinium_vitis-idaea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaccinium_vitis-idaea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs roses en forme de cloche se présentent en petites grappes terminales et sont suivies de baies rouges comestibles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vaccinium_vitis-idaea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaccinium_vitis-idaea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Médicinales
-Vaccinium Vitis-Idaea aide à soulager les troubles féminins liés à la ménopause ou l'ostéoporose[5].
-Alimentaires
-Les fruits sont utilisés comme des canneberges.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Médicinales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vaccinium Vitis-Idaea aide à soulager les troubles féminins liés à la ménopause ou l'ostéoporose.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vaccinium_vitis-idaea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaccinium_vitis-idaea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Alimentaires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont utilisés comme des canneberges.
 </t>
         </is>
       </c>
